--- a/biology/Zoologie/Robert_Tucker_Abbott/Robert_Tucker_Abbott.xlsx
+++ b/biology/Zoologie/Robert_Tucker_Abbott/Robert_Tucker_Abbott.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Tucker Abbott est un malacologiste américain, né le 28 septembre 1919 à Watertown dans le Massachusetts et mort le 3 novembre 1995 des suites d’une maladie pulmonaire.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant la Seconde Guerre mondiale, il est pilote de bombardier puis, après deux ans, il est affecté à une unité de recherche chargée de l’étude de la schistosomiase, une maladie redoutable transmise par des mollusques. Il fait ses études à l’université d’Harvard et obtient un Master of Sciences à l’université George Washington en 1953 et un doctorat en 1955. À partir de cette date, il travaille pour le National Museum of Natural History puis pour l’Academy of Natural Sciences of Philadelphia jusqu’en 1969. En 1969, il devient directeur du département des mollusques ainsi que directeur adjoint du Delaware Museum of Natural History (en) à Wilmington. En 1977, il fonde l’American Malacologists Inc.[1] à Melbourne (Floride). Il fait paraître plus de trente livres sur les coquillages. Son dernier projet, le musée des coquillages Bailey-Matthews, a ouvert deux semaines après sa mort. Il est enterré au cimetière militaire d’Arlington.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant la Seconde Guerre mondiale, il est pilote de bombardier puis, après deux ans, il est affecté à une unité de recherche chargée de l’étude de la schistosomiase, une maladie redoutable transmise par des mollusques. Il fait ses études à l’université d’Harvard et obtient un Master of Sciences à l’université George Washington en 1953 et un doctorat en 1955. À partir de cette date, il travaille pour le National Museum of Natural History puis pour l’Academy of Natural Sciences of Philadelphia jusqu’en 1969. En 1969, il devient directeur du département des mollusques ainsi que directeur adjoint du Delaware Museum of Natural History (en) à Wilmington. En 1977, il fonde l’American Malacologists Inc. à Melbourne (Floride). Il fait paraître plus de trente livres sur les coquillages. Son dernier projet, le musée des coquillages Bailey-Matthews, a ouvert deux semaines après sa mort. Il est enterré au cimetière militaire d’Arlington.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1952 : Two new opisthobranch mollusks from the Gulf of Mexico belonging to the genera Pleurobranchaea and Polycera. Florida State University Studies, No. 7, Papers from the Oceanographic Institute, p. 1-7, pls. 1,2.
 1954 : The habits and occurrence of the nudibranch, Armina tigrina, in southeast United States. Nautilus 67 : 83-86.
